--- a/Docs/Program Management/Agile Scrum Project Management.xlsx
+++ b/Docs/Program Management/Agile Scrum Project Management.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hold</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,8 +362,15 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Docs/Program Management/Agile Scrum Project Management.xlsx
+++ b/Docs/Program Management/Agile Scrum Project Management.xlsx
@@ -4,28 +4,372 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="23955" windowHeight="10290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26085" windowHeight="14040" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Vision" sheetId="1" r:id="rId1"/>
+    <sheet name="Roadmap" sheetId="2" r:id="rId2"/>
+    <sheet name="Team" sheetId="6" r:id="rId3"/>
+    <sheet name="Release" sheetId="3" r:id="rId4"/>
+    <sheet name=" User Stories" sheetId="4" r:id="rId5"/>
+    <sheet name="Feature Backlog" sheetId="5" r:id="rId6"/>
+    <sheet name="Bug &amp; Task Backlog" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Hold</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="102">
+  <si>
+    <t xml:space="preserve">Product Manager </t>
+  </si>
+  <si>
+    <t>Frontend Developer</t>
+  </si>
+  <si>
+    <t>Backend Developer</t>
+  </si>
+  <si>
+    <t>Technical Architect</t>
+  </si>
+  <si>
+    <t>Visual Designer</t>
+  </si>
+  <si>
+    <t>DevOps Engineer</t>
+  </si>
+  <si>
+    <t>Usability Engineer</t>
+  </si>
+  <si>
+    <r>
+      <t>Triple-I</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> RecallFeed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a web based application designed to provide consumers with FDA enforcement report for Food Recall. It further allows consumers to search by 'Food Name', Date Range and Seriousness of Recall. It is powered by openFDA dataset for food recalls and uses wide range of open-source technologies. 
+The applicaiton will be developed following steps outlines in  U.S. Digital Services Playbook and an agile iterative methodology will be used in developing the applicaiton.
+A human-centered design technique and tools will be used to design the application
+Development will use test drive development, unit testing with continuous integration, build and deploy using open-source, no licensing and free of cost technologies
+The applicaiton will be deployed and hosted on a public Platform (IaaS or Paas)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>RecallFeed Roadmap</t>
+  </si>
+  <si>
+    <t>6/19/2015 - 7/07/15</t>
+  </si>
+  <si>
+    <t>Assign one leader for prototype</t>
+  </si>
+  <si>
+    <t>Assemble multi-disciplinary and collaborative team including a minimum of 5 Labor categories</t>
+  </si>
+  <si>
+    <t>Identify users to be used in the prototype design and development process</t>
+  </si>
+  <si>
+    <t>Using 3 "human-centered Design" tools come up with initial wireframes</t>
+  </si>
+  <si>
+    <t>Create html templates using design style sheets and pattern library</t>
+  </si>
+  <si>
+    <t>Setup Configuration Management</t>
+  </si>
+  <si>
+    <t>Setup Continuous Monitoring</t>
+  </si>
+  <si>
+    <t>Deploy Software in a container (Docker)</t>
+  </si>
+  <si>
+    <t>Provide documentation to install and run prototype on another machine</t>
+  </si>
+  <si>
+    <t>used an iterative approach, where feedback informed subsequent work of the prototype</t>
+  </si>
+  <si>
+    <t>Setup Continuous Integration /automate the running of tests/ &amp; continuously deploy code to PaaS provider</t>
+  </si>
+  <si>
+    <t>Perform Usability Test on people - paper</t>
+  </si>
+  <si>
+    <t>Perform Usability Test on people - template</t>
+  </si>
+  <si>
+    <t>Perform Usability Test on people - application</t>
+  </si>
+  <si>
+    <t>Develop the prototype using 5 open-source technologies (develop, write unit test, test, review, incorporate feedback) - multiple device &amp; responsive support.</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>Person C</t>
+  </si>
+  <si>
+    <t>Person D</t>
+  </si>
+  <si>
+    <t>Person E</t>
+  </si>
+  <si>
+    <t>Person F</t>
+  </si>
+  <si>
+    <t>Person G</t>
+  </si>
+  <si>
+    <t>3rd working copy of beta prototype for users</t>
+  </si>
+  <si>
+    <t>1st working copy of beta prototype for users</t>
+  </si>
+  <si>
+    <t>2nd working copy of beta prototpye for users</t>
+  </si>
+  <si>
+    <t>4th working copy of beta prototype for users</t>
+  </si>
+  <si>
+    <t>5th working copy of beta prototype for users</t>
+  </si>
+  <si>
+    <t>USER STORY  #1</t>
+  </si>
+  <si>
+    <t>USER STORY #2</t>
+  </si>
+  <si>
+    <t>USER STORY #3</t>
+  </si>
+  <si>
+    <t>A worried mother just heard on TV traces of peanut were found in food packages, she would like to find out more details of the recall from official source</t>
+  </si>
+  <si>
+    <t>A house wife has heard about lot of food recalls on TV and facebook, would like to check if any of the food in her pantry is on the list of recall'd food</t>
+  </si>
+  <si>
+    <t>A school cafeteria manager would like to access the latest food recall list, print the list on a weekly basis and share it with cafeteria staff on a weekly basis</t>
+  </si>
+  <si>
+    <t>Using human-centered design approach, create the PERSONA, SCENARIO and USE-CASES</t>
+  </si>
+  <si>
+    <t>Using the persona, scenario, use-cases and input from users create the initial wireframes</t>
+  </si>
+  <si>
+    <t>Iteratively evolve the wireframes getting feedback from users</t>
+  </si>
+  <si>
+    <t>Conduct paper-based Usability testing on evolved wireframe</t>
+  </si>
+  <si>
+    <t>Incorporate suggestion/feedback from the paper-based usability testing into wireframes</t>
+  </si>
+  <si>
+    <t>Develop HTML templates from the evolved wireframes</t>
+  </si>
+  <si>
+    <t>Conduct Usability testing on html templates</t>
+  </si>
+  <si>
+    <t>Incorporate changes to templates with feedback from Usability testing</t>
+  </si>
+  <si>
+    <t>Develop prototype application using the latest html templates, using TDD and continuous integration/deployment environment setup</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>Setup necessary access for the team on GitHub</t>
+  </si>
+  <si>
+    <t>Setup the necessary development environment for development of code and access to tools needed.</t>
+  </si>
+  <si>
+    <t>Get the Team created</t>
+  </si>
+  <si>
+    <t>Sprint Planning Meeting (A short meeting)
+- All team members get together and agree on Goal
+- Every team member exactly know what to achieve in the sprint</t>
+  </si>
+  <si>
+    <t>Sprint 1 Planning</t>
+  </si>
+  <si>
+    <t>Sprint-1</t>
+  </si>
+  <si>
+    <t>Sprint-0</t>
+  </si>
+  <si>
+    <t>SPRINT 0</t>
+  </si>
+  <si>
+    <t>ACTIVITIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRINT 1  </t>
+  </si>
+  <si>
+    <t>Conduct the final usability testing on working copy of prototype, document and provide feedback via the daily scrum meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carousel not rotated </t>
+  </si>
+  <si>
+    <t>Clicking the Carousel should take me to detail recall on that product</t>
+  </si>
+  <si>
+    <t>Food Name &amp; Date combine search gets out of date range records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile phone (Samsung 5.0"), the recall date is not showing </t>
+  </si>
+  <si>
+    <t>Mobile phone (Samsung 5.0" android), the date picker has erroneous data loaded</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Problems</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Show image of recall product</t>
+  </si>
+  <si>
+    <t>Allow users iterate to next 100 records</t>
+  </si>
+  <si>
+    <t>N (for prototype)</t>
+  </si>
+  <si>
+    <t>PRODUCT VISION</t>
+  </si>
+  <si>
+    <t>USER STORIES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Owner </t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>RecallsFeed Roadmap</t>
+  </si>
+  <si>
+    <t>RecallsFeed RELEASE</t>
+  </si>
+  <si>
+    <t>RecallsFeed TEAM COMPOSITION</t>
+  </si>
+  <si>
+    <t>Add help to Seriousness label, not everyone knows what it is</t>
+  </si>
+  <si>
+    <t>Add focus to SEARCH box, with focus users during usability testing did not notice it.</t>
+  </si>
+  <si>
+    <t>Enhance the message to display Food Name and Seriousness, in addition to date range.</t>
+  </si>
+  <si>
+    <t>Change "Filter Datasets" label for table search to say "Filter search results with keywords"</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Usability Testing</t>
+  </si>
+  <si>
+    <t>Functional Testing</t>
+  </si>
+  <si>
+    <t>Provide a disclaimer on the website, not official FDA</t>
+  </si>
+  <si>
+    <t>Recall or Report date is important to know when food recall happened</t>
+  </si>
+  <si>
+    <t>Can we search by exact food name</t>
+  </si>
+  <si>
+    <t>Current dataset does not provide exact food name's. Food names can be searched in recall description</t>
+  </si>
+  <si>
+    <t>Introduce borders around event detail page.</t>
+  </si>
+  <si>
+    <t>Indica Food Name field is optional during search</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>1st Release v1.0.0 of prototype</t>
+  </si>
+  <si>
+    <t>2nd Release v2.0.0 of prototype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deploy Docker Image via Docker Hub
+</t>
+  </si>
+  <si>
+    <t>Setup the DevOps environment for 
+- continuous integration, build and deploy 
+- Configuration Maangement
+- Configure continuous monitoring</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>Review and test  prototype after every nightly build, going through feedback/suggestion. With agreement of product manager add it to  Task list for engineers to take care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +377,181 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF148FA8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -50,15 +559,281 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,8 +841,2106 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5734050" y="371475"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5734050" y="600075"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5715000" y="885825"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6353175" y="1552575"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6991350" y="2009775"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6343650" y="2409825"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6343650" y="2809875"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972300" y="3095625"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6953250" y="3286125"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6953250" y="3524250"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7610475" y="3848100"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7620000" y="4029075"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8296275" y="4200525"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8924925" y="4495800"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9591675" y="4495800"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10144125" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10829925" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="6029325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12039600" y="6029325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12525375" y="6029325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8915400" y="4486275"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9591675" y="4495800"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10144125" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10829925" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12039600" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12525375" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8915400" y="4486275"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9591675" y="4495800"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10144125" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10829925" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12039600" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="12525375" y="4505325"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>523875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11496675" y="5381625"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>365125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7607300" y="2146300"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>768350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>250825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9632950" y="2895600"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48" descr="http://cdn.mysitemyway.com/etc-mysitemyway/icons/legacy-previews/icons/green-jelly-icons-symbols-shapes/019227-green-jelly-icon-symbols-shapes-check-mark5-ps.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10172700" y="2917825"/>
+          <a:ext cx="180975" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -357,43 +3230,1536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85.28515625" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="82" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7">
+        <v>42174</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42177</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42178</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42179</v>
+      </c>
+      <c r="F3" s="7">
+        <v>42180</v>
+      </c>
+      <c r="G3" s="7">
+        <v>42181</v>
+      </c>
+      <c r="H3" s="7">
+        <v>42184</v>
+      </c>
+      <c r="I3" s="7">
+        <v>42185</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42186</v>
+      </c>
+      <c r="K3" s="7">
+        <v>42187</v>
+      </c>
+      <c r="L3" s="7">
+        <v>42191</v>
+      </c>
+      <c r="M3" s="11">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+    </row>
+    <row r="18" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M10"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.7109375" customWidth="1"/>
+    <col min="2" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3"/>
+      <c r="B3" s="7">
+        <v>42174</v>
+      </c>
+      <c r="C3" s="7">
+        <v>42177</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42178</v>
+      </c>
+      <c r="E3" s="7">
+        <v>42179</v>
+      </c>
+      <c r="F3" s="7">
+        <v>42180</v>
+      </c>
+      <c r="G3" s="7">
+        <v>42181</v>
+      </c>
+      <c r="H3" s="7">
+        <v>42184</v>
+      </c>
+      <c r="I3" s="7">
+        <v>42185</v>
+      </c>
+      <c r="J3" s="7">
+        <v>42186</v>
+      </c>
+      <c r="K3" s="7">
+        <v>42187</v>
+      </c>
+      <c r="L3" s="12">
+        <v>42191</v>
+      </c>
+      <c r="M3" s="12">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="42">
+        <v>1</v>
+      </c>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="30">
+        <v>2</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="30">
+        <v>3</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="30">
+        <v>4</v>
+      </c>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="30">
+        <v>5</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="30">
+        <v>6</v>
+      </c>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="43">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
+      <c r="A1" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" style="5" customWidth="1"/>
+    <col min="3" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="7">
+        <v>42174</v>
+      </c>
+      <c r="D2" s="7">
+        <v>42177</v>
+      </c>
+      <c r="E2" s="7">
+        <v>42178</v>
+      </c>
+      <c r="F2" s="7">
+        <v>42179</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42180</v>
+      </c>
+      <c r="H2" s="7">
+        <v>42181</v>
+      </c>
+      <c r="I2" s="7">
+        <v>42184</v>
+      </c>
+      <c r="J2" s="7">
+        <v>42185</v>
+      </c>
+      <c r="K2" s="7">
+        <v>42186</v>
+      </c>
+      <c r="L2" s="7">
+        <v>42187</v>
+      </c>
+      <c r="M2" s="12">
+        <v>42191</v>
+      </c>
+      <c r="N2" s="12">
+        <v>42192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A5" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+    </row>
+    <row r="7" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+    </row>
+    <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A15" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+    </row>
+    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A17" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+    </row>
+    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+    </row>
+    <row r="19" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="23"/>
+    </row>
+    <row r="20" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="44">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="45"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A3" s="44">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="45"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="44">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="44">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A7" s="44">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A8" s="44">
+        <v>7</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="50"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="44">
+        <v>8</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="50"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="44">
+        <v>9</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A11" s="44">
+        <v>10</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A12" s="44">
+        <v>11</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A14" s="44">
+        <v>13</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A15" s="47">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="45"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="49">
+        <v>15</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="50"/>
+      <c r="F16" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A17" s="49">
+        <v>16</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="45"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Program Management/Agile Scrum Project Management.xlsx
+++ b/Docs/Program Management/Agile Scrum Project Management.xlsx
@@ -179,12 +179,6 @@
     <t>A school cafeteria manager would like to access the latest food recall list, print the list on a weekly basis and share it with cafeteria staff on a weekly basis</t>
   </si>
   <si>
-    <t>Using human-centered design approach, create the PERSONA, SCENARIO and USE-CASES</t>
-  </si>
-  <si>
-    <t>Using the persona, scenario, use-cases and input from users create the initial wireframes</t>
-  </si>
-  <si>
     <t>Iteratively evolve the wireframes getting feedback from users</t>
   </si>
   <si>
@@ -194,16 +188,10 @@
     <t>Incorporate suggestion/feedback from the paper-based usability testing into wireframes</t>
   </si>
   <si>
-    <t>Develop HTML templates from the evolved wireframes</t>
-  </si>
-  <si>
     <t>Conduct Usability testing on html templates</t>
   </si>
   <si>
     <t>Incorporate changes to templates with feedback from Usability testing</t>
-  </si>
-  <si>
-    <t>Develop prototype application using the latest html templates, using TDD and continuous integration/deployment environment setup</t>
   </si>
   <si>
     <t>SPRINT</t>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>Review and test  prototype after every nightly build, going through feedback/suggestion. With agreement of product manager add it to  Task list for engineers to take care</t>
+  </si>
+  <si>
+    <t>Develop prototype application (implementing user stories 1,2,3 using the latest html templates, using TDD and continuous integration/deployment environment setup</t>
+  </si>
+  <si>
+    <t>Develop HTML templates from the evolved wireframes for user stories 1, 2,3</t>
+  </si>
+  <si>
+    <t>Using the persona, scenario, use-cases and input from users to create the initial wireframes for user stories 1,2,3</t>
+  </si>
+  <si>
+    <t>Using human-centered design approach, create the PERSONA, SCENARIO and USE-CASES for user stories 1, 2, 3</t>
   </si>
 </sst>
 </file>
@@ -1410,8 +1410,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>212725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1465,8 +1465,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1521,7 +1521,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3243,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="217.5" x14ac:dyDescent="0.35">
@@ -3294,7 +3294,7 @@
     </row>
     <row r="2" spans="1:13" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="A2" s="18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="53"/>
@@ -3631,7 +3631,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B1" s="55"/>
     </row>
@@ -3716,7 +3716,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B1" s="54" t="s">
         <v>9</v>
@@ -3883,7 +3883,7 @@
     </row>
     <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="22"/>
@@ -3902,7 +3902,7 @@
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="35"/>
@@ -3946,7 +3946,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="55" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B1" s="55"/>
     </row>
@@ -3986,8 +3986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,10 +4000,10 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C1" s="54" t="s">
         <v>9</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="2" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="7">
@@ -4064,10 +4064,10 @@
     </row>
     <row r="3" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="39"/>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
@@ -4104,10 +4104,10 @@
     </row>
     <row r="5" spans="1:14" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="26"/>
       <c r="D5" s="22"/>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="6" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="58" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B6" s="58"/>
       <c r="C6" s="26"/>
@@ -4142,10 +4142,10 @@
     </row>
     <row r="7" spans="1:14" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="22"/>
@@ -4162,10 +4162,10 @@
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="22"/>
@@ -4182,10 +4182,10 @@
     </row>
     <row r="9" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="26"/>
       <c r="D9" s="22"/>
@@ -4202,10 +4202,10 @@
     </row>
     <row r="10" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="22"/>
@@ -4222,10 +4222,10 @@
     </row>
     <row r="11" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C11" s="26"/>
       <c r="D11" s="22"/>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="12" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="22"/>
@@ -4262,10 +4262,10 @@
     </row>
     <row r="13" spans="1:14" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="22"/>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C14" s="26"/>
       <c r="D14" s="22"/>
@@ -4300,12 +4300,12 @@
       <c r="M14" s="22"/>
       <c r="N14" s="23"/>
     </row>
-    <row r="15" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="C15" s="26"/>
       <c r="D15" s="22"/>
@@ -4320,12 +4320,12 @@
       <c r="M15" s="22"/>
       <c r="N15" s="23"/>
     </row>
-    <row r="16" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="26"/>
       <c r="D16" s="22"/>
@@ -4340,12 +4340,12 @@
       <c r="M16" s="22"/>
       <c r="N16" s="23"/>
     </row>
-    <row r="17" spans="1:14" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="26"/>
       <c r="D17" s="22"/>
@@ -4360,12 +4360,12 @@
       <c r="M17" s="22"/>
       <c r="N17" s="23"/>
     </row>
-    <row r="18" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="22"/>
@@ -4382,10 +4382,10 @@
     </row>
     <row r="19" spans="1:14" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C19" s="26"/>
       <c r="D19" s="22"/>
@@ -4400,12 +4400,12 @@
       <c r="M19" s="22"/>
       <c r="N19" s="23"/>
     </row>
-    <row r="20" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="34"/>
       <c r="D20" s="35"/>
@@ -4435,7 +4435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -4451,22 +4451,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -4474,16 +4474,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="45"/>
     </row>
@@ -4492,16 +4492,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C3" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="45"/>
     </row>
@@ -4510,16 +4510,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F4" s="45"/>
     </row>
@@ -4528,16 +4528,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F5" s="45"/>
     </row>
@@ -4546,16 +4546,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F6" s="45"/>
     </row>
@@ -4564,16 +4564,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F7" s="45"/>
     </row>
@@ -4582,13 +4582,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E8" s="50"/>
       <c r="F8" s="45"/>
@@ -4598,13 +4598,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C9" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E9" s="50"/>
       <c r="F9" s="45"/>
@@ -4614,16 +4614,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D10" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F10" s="45"/>
     </row>
@@ -4632,16 +4632,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="44" t="s">
-        <v>87</v>
-      </c>
       <c r="D11" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="45"/>
     </row>
@@ -4650,16 +4650,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="44" t="s">
-        <v>88</v>
-      </c>
       <c r="D12" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="45"/>
     </row>
@@ -4668,16 +4668,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F13" s="45"/>
     </row>
@@ -4686,16 +4686,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F14" s="45"/>
     </row>
@@ -4704,16 +4704,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F15" s="45"/>
     </row>
@@ -4722,17 +4722,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" s="50"/>
       <c r="F16" s="45" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
@@ -4740,22 +4740,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E17" s="51" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F17" s="45"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
